--- a/Data/Metadata/GFD_metadata.xlsx
+++ b/Data/Metadata/GFD_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma DeAngeli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benculberson/Documents/Duke /Spring 2022/Environmental Data Analytics/Shapiro_DeAngeli_Culberson_ENV872_EDA_FinalProject/Data/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C096CDA-6BDA-4801-8291-248220952B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ED3BA9-31F0-1142-8815-F19A293B121E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC2E6EAF-57A0-4A0F-A285-F568D6F0A197}"/>
+    <workbookView xWindow="2440" yWindow="2260" windowWidth="37060" windowHeight="18480" xr2:uid="{EC2E6EAF-57A0-4A0F-A285-F568D6F0A197}"/>
   </bookViews>
   <sheets>
     <sheet name="Series - Metadata" sheetId="1" r:id="rId1"/>
@@ -430,15 +430,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695FB1C1-E2A4-49B9-A365-145DD9381E9F}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="5" width="50.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="5" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -455,7 +457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -472,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
